--- a/TESTDATA/RESOURCES/templates/grades/Noteneingabe-Abitur.xlsx
+++ b/TESTDATA/RESOURCES/templates/grades/Noteneingabe-Abitur.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Noten im Bereich 0 – 15 Punkte.</t>
   </si>
   <si>
-    <t xml:space="preserve">Klasse</t>
+    <t xml:space="preserve">Klasse/Gruppe</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$</t>
   </si>
   <si>
     <t xml:space="preserve">0 – 15 Punkte</t>
@@ -294,7 +297,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,10 +401,10 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A6"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.74"/>
@@ -680,9 +683,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="94.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+      <c r="A9" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="B9" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="12"/>
